--- a/画像/LORD_OF_TYPING_仕様書.xlsx
+++ b/画像/LORD_OF_TYPING_仕様書.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jikeigroupcom.sharepoint.com/sites/22TECH_3-4_652/Shared Documents/02班_LORD OF TYPING/LORD OF TYPING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{6350EF4E-7D8C-DD4C-A09A-FA860CC252F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44787D64-E0A4-884C-9E49-ED179F0719B3}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{6350EF4E-7D8C-DD4C-A09A-FA860CC252F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A85E0948-FA83-4FB4-967D-E959ABE8FEF0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="3" xr2:uid="{42431B82-70A0-4D4F-ACD2-2040751770A5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" firstSheet="3" activeTab="2" xr2:uid="{42431B82-70A0-4D4F-ACD2-2040751770A5}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="簡易仕様一覧" sheetId="2" r:id="rId2"/>
-    <sheet name="ゲームシステム" sheetId="9" r:id="rId3"/>
-    <sheet name="登場単語リスト" sheetId="4" r:id="rId4"/>
-    <sheet name="称号リスト" sheetId="5" r:id="rId5"/>
-    <sheet name="やることリスト" sheetId="3" r:id="rId6"/>
+    <sheet name="画面イメージ" sheetId="10" r:id="rId3"/>
+    <sheet name="ゲームシステム" sheetId="9" r:id="rId4"/>
+    <sheet name="登場単語リスト" sheetId="4" r:id="rId5"/>
+    <sheet name="称号リスト" sheetId="5" r:id="rId6"/>
+    <sheet name="やることリスト" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1179">
   <si>
     <t>LORD OF TYPING 仕様書</t>
   </si>
@@ -712,6 +713,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>画面イメージ</t>
+  </si>
+  <si>
+    <t>タイトル</t>
+  </si>
+  <si>
+    <t>リザルト</t>
+  </si>
+  <si>
+    <t>↑文字色は未定</t>
+  </si>
+  <si>
     <t>ゲームシステム</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4544,6 +4557,29 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>フォント、BGM、背景探し</t>
+    <rPh sb="9" eb="11">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サガセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制限時間表示、詠唱短縮ゲージ作成</t>
+    <rPh sb="0" eb="6">
+      <t>セイゲn</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>エイショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>21~26</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4577,29 +4613,6 @@
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フォント、BGM、背景探し</t>
-    <rPh sb="9" eb="11">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サガセィ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>制限時間表示、詠唱短縮ゲージ作成</t>
-    <rPh sb="0" eb="6">
-      <t>セイゲn</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>エイショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5154,6 +5167,102 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE314E2-F417-8C1C-5D9B-AC054C4F8E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="1200150"/>
+          <a:ext cx="4572000" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB483B54-06FF-DC60-A0E2-0CA080E00BC1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DEE314E2-F417-8C1C-5D9B-AC054C4F8E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="1200150"/>
+          <a:ext cx="4572000" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -5318,7 +5427,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -8004,7 +8113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8307,9 +8416,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8435,14 +8544,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="35" customFormat="1">
@@ -8638,6 +8747,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DDF54-4280-4B4E-A7C8-E9F5653ADA3B}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="35" customFormat="1" ht="18">
+      <c r="A1" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="35" customFormat="1" ht="18"/>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF86C32-FEB9-42B7-A2C6-DAB3E87AC203}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J64"/>
@@ -8646,11 +8793,11 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:2" s="35" customFormat="1">
       <c r="A1" s="35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="35" customFormat="1"/>
@@ -8672,58 +8819,58 @@
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="8" customFormat="1">
       <c r="B18" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="9" customFormat="1">
       <c r="A20"/>
       <c r="B20" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="C22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="C23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="C24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="C25" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="C26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8732,60 +8879,60 @@
     <row r="30" spans="1:3" s="9" customFormat="1">
       <c r="A30"/>
       <c r="B30" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="C32" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="C34" s="36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F34" s="37"/>
       <c r="H34" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="C35" s="36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F35" s="37"/>
     </row>
     <row r="36" spans="1:9">
       <c r="C36" s="36" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F36" s="37"/>
     </row>
     <row r="37" spans="1:9">
       <c r="C37" s="36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F37" s="37"/>
     </row>
     <row r="40" spans="1:9" s="8" customFormat="1">
       <c r="B40" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="9" customFormat="1">
@@ -8796,7 +8943,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="C44" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -8804,62 +8951,62 @@
     </row>
     <row r="46" spans="1:9">
       <c r="C46" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:9">
       <c r="C47" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="9" customFormat="1">
       <c r="A52"/>
       <c r="B52" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="C54" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="C55" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="C57" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="C58" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="C59" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="C60" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="C61" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="C64" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -8887,48 +9034,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A1173-2AF3-4BFA-A0A2-CEC204E87167}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+    <sheetView topLeftCell="A177" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="8" max="8" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="11" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="35" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="35" customFormat="1" ht="18.75" customHeight="1"/>
     <row r="4" spans="1:12">
       <c r="H4" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="38" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="H5" s="39" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
@@ -8937,34 +9084,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="I6" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8972,31 +9119,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9004,31 +9151,31 @@
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H8" s="11">
         <v>2</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9036,31 +9183,31 @@
         <v>3</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H9" s="5">
         <v>3</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9068,31 +9215,31 @@
         <v>4</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H10" s="11">
         <v>4</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9100,28 +9247,28 @@
         <v>5</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H11" s="5">
         <v>5</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L11" s="31"/>
     </row>
@@ -9130,31 +9277,31 @@
         <v>6</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H12" s="11">
         <v>6</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9162,31 +9309,31 @@
         <v>7</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H13" s="5">
         <v>7</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9194,31 +9341,31 @@
         <v>8</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H14" s="11">
         <v>8</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9226,31 +9373,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H15" s="5">
         <v>9</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9258,31 +9405,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H16" s="11">
         <v>10</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -9290,31 +9437,31 @@
         <v>11</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H17" s="5">
         <v>11</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -9322,31 +9469,31 @@
         <v>12</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H18" s="11">
         <v>12</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -9354,31 +9501,31 @@
         <v>13</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H19" s="5">
         <v>13</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -9386,31 +9533,31 @@
         <v>14</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H20" s="11">
         <v>14</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -9418,31 +9565,31 @@
         <v>15</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H21" s="5">
         <v>15</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -9450,31 +9597,31 @@
         <v>16</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H22" s="11">
         <v>16</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -9482,31 +9629,31 @@
         <v>17</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H23" s="5">
         <v>17</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -9514,31 +9661,31 @@
         <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H24" s="11">
         <v>18</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -9546,31 +9693,31 @@
         <v>19</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H25" s="5">
         <v>19</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -9578,31 +9725,31 @@
         <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H26" s="11">
         <v>20</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -9610,28 +9757,28 @@
         <v>21</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H27" s="5">
         <v>21</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L27" s="31"/>
     </row>
@@ -9640,31 +9787,31 @@
         <v>22</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H28" s="11">
         <v>22</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -9672,31 +9819,31 @@
         <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H29" s="5">
         <v>23</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -9704,31 +9851,31 @@
         <v>24</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H30" s="11">
         <v>24</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -9736,31 +9883,31 @@
         <v>25</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H31" s="5">
         <v>25</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -9768,31 +9915,31 @@
         <v>26</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H32" s="11">
         <v>26</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -9800,31 +9947,31 @@
         <v>27</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H33" s="5">
         <v>27</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="2:12">
@@ -9832,31 +9979,31 @@
         <v>28</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H34" s="11">
         <v>28</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="2:12">
@@ -9864,31 +10011,31 @@
         <v>29</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H35" s="5">
         <v>29</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="2:12">
@@ -9896,31 +10043,31 @@
         <v>30</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H36" s="11">
         <v>30</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="2:12">
@@ -9928,31 +10075,31 @@
         <v>31</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H37" s="5">
         <v>31</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -9960,31 +10107,31 @@
         <v>32</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H38" s="11">
         <v>32</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="2:12">
@@ -9992,31 +10139,31 @@
         <v>33</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H39" s="5">
         <v>33</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="2:12">
@@ -10024,31 +10171,31 @@
         <v>34</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H40" s="11">
         <v>34</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -10056,31 +10203,31 @@
         <v>35</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H41" s="5">
         <v>35</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="2:12">
@@ -10088,31 +10235,31 @@
         <v>36</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H42" s="11">
         <v>36</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="2:12">
@@ -10120,31 +10267,31 @@
         <v>37</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H43" s="5">
         <v>37</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="2:12">
@@ -10152,31 +10299,31 @@
         <v>38</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H44" s="11">
         <v>38</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="2:12">
@@ -10184,28 +10331,28 @@
         <v>39</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H45" s="5">
         <v>39</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J45" s="31" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L45" s="31"/>
     </row>
@@ -10214,31 +10361,31 @@
         <v>40</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H46" s="11">
         <v>40</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="2:12">
@@ -10246,31 +10393,31 @@
         <v>41</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H47" s="5">
         <v>41</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="2:12">
@@ -10278,31 +10425,31 @@
         <v>42</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H48" s="11">
         <v>42</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="2:12">
@@ -10310,31 +10457,31 @@
         <v>43</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H49" s="5">
         <v>43</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="2:12">
@@ -10342,31 +10489,31 @@
         <v>44</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H50" s="11">
         <v>44</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="2:12">
@@ -10374,31 +10521,31 @@
         <v>45</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H51" s="5">
         <v>45</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="2:12">
@@ -10406,31 +10553,31 @@
         <v>46</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H52" s="11">
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="J52" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K52" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="2:12">
@@ -10438,31 +10585,31 @@
         <v>47</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H53" s="5">
         <v>47</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -10470,31 +10617,31 @@
         <v>48</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H54" s="11">
         <v>48</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="2:12">
@@ -10502,31 +10649,31 @@
         <v>49</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H55" s="5">
         <v>49</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="2:12">
@@ -10534,31 +10681,31 @@
         <v>50</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H56" s="11">
         <v>50</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="57" spans="2:12">
@@ -10566,16 +10713,16 @@
         <v>51</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="2:12">
@@ -10583,16 +10730,16 @@
         <v>52</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" spans="2:12">
@@ -10600,16 +10747,16 @@
         <v>53</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="60" spans="2:12">
@@ -10617,16 +10764,16 @@
         <v>54</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61" spans="2:12">
@@ -10634,16 +10781,16 @@
         <v>55</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" spans="2:12">
@@ -10651,16 +10798,16 @@
         <v>56</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63" spans="2:12">
@@ -10668,16 +10815,16 @@
         <v>57</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="2:12">
@@ -10685,16 +10832,16 @@
         <v>58</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -10702,16 +10849,16 @@
         <v>59</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="2:6">
@@ -10719,16 +10866,16 @@
         <v>60</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="67" spans="2:6">
@@ -10736,16 +10883,16 @@
         <v>61</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -10753,16 +10900,16 @@
         <v>62</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="2:6">
@@ -10770,16 +10917,16 @@
         <v>63</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70" spans="2:6">
@@ -10787,16 +10934,16 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D70" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E70" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="2:6">
@@ -10804,16 +10951,16 @@
         <v>65</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="2:6">
@@ -10821,16 +10968,16 @@
         <v>66</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="2:6">
@@ -10838,16 +10985,16 @@
         <v>67</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" spans="2:6">
@@ -10855,16 +11002,16 @@
         <v>68</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="2:6">
@@ -10872,16 +11019,16 @@
         <v>69</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="76" spans="2:6">
@@ -10889,16 +11036,16 @@
         <v>70</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="2:6">
@@ -10906,16 +11053,16 @@
         <v>71</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="78" spans="2:6">
@@ -10923,16 +11070,16 @@
         <v>72</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="79" spans="2:6">
@@ -10940,16 +11087,16 @@
         <v>73</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="80" spans="2:6">
@@ -10957,16 +11104,16 @@
         <v>74</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="81" spans="2:6">
@@ -10974,16 +11121,16 @@
         <v>75</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="82" spans="2:6">
@@ -10991,16 +11138,16 @@
         <v>76</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="83" spans="2:6">
@@ -11008,16 +11155,16 @@
         <v>77</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="2:6">
@@ -11025,16 +11172,16 @@
         <v>78</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="85" spans="2:6">
@@ -11042,13 +11189,13 @@
         <v>79</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F85" s="5"/>
     </row>
@@ -11057,16 +11204,16 @@
         <v>80</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -11074,16 +11221,16 @@
         <v>81</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="88" spans="2:6">
@@ -11091,16 +11238,16 @@
         <v>82</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="2:6">
@@ -11108,16 +11255,16 @@
         <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D89" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E89" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="90" spans="2:6">
@@ -11125,16 +11272,16 @@
         <v>84</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="91" spans="2:6">
@@ -11142,16 +11289,16 @@
         <v>85</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="92" spans="2:6">
@@ -11159,16 +11306,16 @@
         <v>86</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="93" spans="2:6">
@@ -11176,16 +11323,16 @@
         <v>87</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="94" spans="2:6">
@@ -11193,16 +11340,16 @@
         <v>88</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="95" spans="2:6">
@@ -11210,16 +11357,16 @@
         <v>89</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96" spans="2:6">
@@ -11227,16 +11374,16 @@
         <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D96" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="E96" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="97" spans="2:6">
@@ -11244,16 +11391,16 @@
         <v>91</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="98" spans="2:6">
@@ -11261,16 +11408,16 @@
         <v>92</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -11278,16 +11425,16 @@
         <v>93</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="100" spans="2:6">
@@ -11295,16 +11442,16 @@
         <v>94</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="101" spans="2:6">
@@ -11312,16 +11459,16 @@
         <v>95</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="102" spans="2:6">
@@ -11329,16 +11476,16 @@
         <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D102" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E102" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="103" spans="2:6">
@@ -11346,16 +11493,16 @@
         <v>97</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="104" spans="2:6">
@@ -11363,16 +11510,16 @@
         <v>98</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="105" spans="2:6">
@@ -11380,16 +11527,16 @@
         <v>99</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="106" spans="2:6">
@@ -11397,16 +11544,16 @@
         <v>100</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="107" spans="2:6">
@@ -11414,16 +11561,16 @@
         <v>101</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="108" spans="2:6">
@@ -11431,16 +11578,16 @@
         <v>102</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="109" spans="2:6">
@@ -11448,16 +11595,16 @@
         <v>103</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="110" spans="2:6">
@@ -11465,16 +11612,16 @@
         <v>104</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" spans="2:6">
@@ -11482,16 +11629,16 @@
         <v>105</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="112" spans="2:6">
@@ -11499,16 +11646,16 @@
         <v>106</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="113" spans="2:6">
@@ -11516,16 +11663,16 @@
         <v>107</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="114" spans="2:6">
@@ -11533,16 +11680,16 @@
         <v>108</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="115" spans="2:6">
@@ -11550,16 +11697,16 @@
         <v>109</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="116" spans="2:6">
@@ -11567,16 +11714,16 @@
         <v>110</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="117" spans="2:6">
@@ -11584,16 +11731,16 @@
         <v>111</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="118" spans="2:6">
@@ -11601,16 +11748,16 @@
         <v>112</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="119" spans="2:6">
@@ -11618,16 +11765,16 @@
         <v>113</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="120" spans="2:6">
@@ -11635,16 +11782,16 @@
         <v>114</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="121" spans="2:6">
@@ -11652,16 +11799,16 @@
         <v>115</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="122" spans="2:6">
@@ -11669,16 +11816,16 @@
         <v>116</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="123" spans="2:6">
@@ -11686,16 +11833,16 @@
         <v>117</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="124" spans="2:6">
@@ -11703,16 +11850,16 @@
         <v>118</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="125" spans="2:6">
@@ -11720,16 +11867,16 @@
         <v>119</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="126" spans="2:6">
@@ -11737,16 +11884,16 @@
         <v>120</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="127" spans="2:6">
@@ -11754,16 +11901,16 @@
         <v>121</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="128" spans="2:6">
@@ -11771,16 +11918,16 @@
         <v>122</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="129" spans="2:6">
@@ -11788,16 +11935,16 @@
         <v>123</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="130" spans="2:6">
@@ -11805,16 +11952,16 @@
         <v>124</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="131" spans="2:6">
@@ -11822,16 +11969,16 @@
         <v>125</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="132" spans="2:6">
@@ -11839,16 +11986,16 @@
         <v>126</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="133" spans="2:6">
@@ -11856,16 +12003,16 @@
         <v>127</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="134" spans="2:6">
@@ -11873,16 +12020,16 @@
         <v>128</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="135" spans="2:6">
@@ -11890,16 +12037,16 @@
         <v>129</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="136" spans="2:6">
@@ -11907,16 +12054,16 @@
         <v>130</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="137" spans="2:6">
@@ -11924,16 +12071,16 @@
         <v>131</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="138" spans="2:6">
@@ -11941,16 +12088,16 @@
         <v>132</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="139" spans="2:6">
@@ -11958,16 +12105,16 @@
         <v>133</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="140" spans="2:6">
@@ -11975,16 +12122,16 @@
         <v>134</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="141" spans="2:6">
@@ -11992,16 +12139,16 @@
         <v>135</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="142" spans="2:6">
@@ -12009,16 +12156,16 @@
         <v>136</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="143" spans="2:6">
@@ -12026,16 +12173,16 @@
         <v>137</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="144" spans="2:6">
@@ -12043,16 +12190,16 @@
         <v>138</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="145" spans="2:6">
@@ -12060,16 +12207,16 @@
         <v>139</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="146" spans="2:6">
@@ -12077,16 +12224,16 @@
         <v>140</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="147" spans="2:6">
@@ -12094,16 +12241,16 @@
         <v>141</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="148" spans="2:6">
@@ -12111,16 +12258,16 @@
         <v>142</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="149" spans="2:6">
@@ -12128,16 +12275,16 @@
         <v>143</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="150" spans="2:6">
@@ -12145,16 +12292,16 @@
         <v>144</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="151" spans="2:6">
@@ -12162,16 +12309,16 @@
         <v>145</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
     </row>
     <row r="152" spans="2:6">
@@ -12179,16 +12326,16 @@
         <v>146</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="153" spans="2:6">
@@ -12196,16 +12343,16 @@
         <v>147</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="154" spans="2:6">
@@ -12213,16 +12360,16 @@
         <v>148</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="155" spans="2:6">
@@ -12230,16 +12377,16 @@
         <v>149</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="156" spans="2:6">
@@ -12247,16 +12394,16 @@
         <v>150</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="157" spans="2:6">
@@ -12264,16 +12411,16 @@
         <v>151</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="158" spans="2:6">
@@ -12281,16 +12428,16 @@
         <v>152</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="159" spans="2:6">
@@ -12298,16 +12445,16 @@
         <v>153</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="160" spans="2:6">
@@ -12315,16 +12462,16 @@
         <v>154</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="161" spans="2:6">
@@ -12332,16 +12479,16 @@
         <v>155</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="162" spans="2:6">
@@ -12349,16 +12496,16 @@
         <v>156</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
     </row>
     <row r="163" spans="2:6">
@@ -12366,16 +12513,16 @@
         <v>157</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="164" spans="2:6">
@@ -12383,16 +12530,16 @@
         <v>158</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
     </row>
     <row r="165" spans="2:6">
@@ -12400,16 +12547,16 @@
         <v>159</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
     </row>
     <row r="166" spans="2:6">
@@ -12417,16 +12564,16 @@
         <v>160</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
     </row>
     <row r="167" spans="2:6">
@@ -12434,16 +12581,16 @@
         <v>161</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="168" spans="2:6">
@@ -12451,16 +12598,16 @@
         <v>162</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="169" spans="2:6">
@@ -12468,16 +12615,16 @@
         <v>163</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="170" spans="2:6">
@@ -12485,16 +12632,16 @@
         <v>164</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
     </row>
     <row r="171" spans="2:6">
@@ -12502,16 +12649,16 @@
         <v>165</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
     </row>
     <row r="172" spans="2:6">
@@ -12519,16 +12666,16 @@
         <v>166</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
     </row>
     <row r="173" spans="2:6">
@@ -12536,16 +12683,16 @@
         <v>167</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
     </row>
     <row r="174" spans="2:6">
@@ -12553,16 +12700,16 @@
         <v>168</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
     </row>
     <row r="175" spans="2:6">
@@ -12570,16 +12717,16 @@
         <v>169</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
     </row>
     <row r="176" spans="2:6">
@@ -12587,16 +12734,16 @@
         <v>170</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
     </row>
     <row r="177" spans="2:6">
@@ -12604,16 +12751,16 @@
         <v>171</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="178" spans="2:6">
@@ -12621,16 +12768,16 @@
         <v>172</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
     </row>
     <row r="179" spans="2:6">
@@ -12638,16 +12785,16 @@
         <v>173</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
     </row>
     <row r="180" spans="2:6">
@@ -12655,16 +12802,16 @@
         <v>174</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
     </row>
     <row r="181" spans="2:6">
@@ -12672,16 +12819,16 @@
         <v>175</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="182" spans="2:6">
@@ -12689,16 +12836,16 @@
         <v>176</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="183" spans="2:6">
@@ -12706,16 +12853,16 @@
         <v>177</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="184" spans="2:6">
@@ -12723,16 +12870,16 @@
         <v>178</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="185" spans="2:6">
@@ -12740,16 +12887,16 @@
         <v>179</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="186" spans="2:6">
@@ -12757,16 +12904,16 @@
         <v>180</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="187" spans="2:6">
@@ -12774,16 +12921,16 @@
         <v>181</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="188" spans="2:6">
@@ -12791,16 +12938,16 @@
         <v>182</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="189" spans="2:6">
@@ -12808,16 +12955,16 @@
         <v>183</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="190" spans="2:6">
@@ -12825,16 +12972,16 @@
         <v>184</v>
       </c>
       <c r="C190" s="33" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="F190" s="11" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="191" spans="2:6">
@@ -12842,16 +12989,16 @@
         <v>185</v>
       </c>
       <c r="C191" s="33" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="192" spans="2:6">
@@ -12859,16 +13006,16 @@
         <v>186</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="193" spans="2:6">
@@ -12876,16 +13023,16 @@
         <v>187</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="194" spans="2:6">
@@ -12893,16 +13040,16 @@
         <v>188</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="195" spans="2:6">
@@ -12910,16 +13057,16 @@
         <v>189</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="196" spans="2:6">
@@ -12927,16 +13074,16 @@
         <v>190</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="197" spans="2:6">
@@ -12944,16 +13091,16 @@
         <v>191</v>
       </c>
       <c r="C197" s="33" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="198" spans="2:6">
@@ -12961,16 +13108,16 @@
         <v>192</v>
       </c>
       <c r="C198" s="33" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="199" spans="2:6">
@@ -12978,16 +13125,16 @@
         <v>193</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="200" spans="2:6">
@@ -12995,16 +13142,16 @@
         <v>194</v>
       </c>
       <c r="C200" s="33" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="201" spans="2:6">
@@ -13012,16 +13159,16 @@
         <v>195</v>
       </c>
       <c r="C201" s="33" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="202" spans="2:6">
@@ -13029,16 +13176,16 @@
         <v>196</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="203" spans="2:6">
@@ -13046,16 +13193,16 @@
         <v>197</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="204" spans="2:6">
@@ -13063,16 +13210,16 @@
         <v>198</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="205" spans="2:6">
@@ -13080,16 +13227,16 @@
         <v>199</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="206" spans="2:6">
@@ -13097,16 +13244,16 @@
         <v>200</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="207" spans="2:6">
@@ -13220,7 +13367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166AE7D3-5E68-4BA4-A1B2-66736B66A4D4}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E54"/>
@@ -13229,31 +13376,31 @@
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="35" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="35" customFormat="1" ht="18.75" customHeight="1"/>
     <row r="4" spans="1:5">
       <c r="B4" s="21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13261,10 +13408,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -13272,10 +13419,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -13283,10 +13430,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -13294,10 +13441,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13305,10 +13452,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13316,10 +13463,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -13327,10 +13474,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -13338,10 +13485,10 @@
         <v>28</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -13349,10 +13496,10 @@
         <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -13360,10 +13507,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -13371,10 +13518,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -13382,10 +13529,10 @@
         <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -13393,10 +13540,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -13404,10 +13551,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -13415,10 +13562,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -13426,10 +13573,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -13437,10 +13584,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -13448,10 +13595,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -13459,10 +13606,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -13470,10 +13617,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -13481,10 +13628,10 @@
         <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -13492,10 +13639,10 @@
         <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -13503,10 +13650,10 @@
         <v>32</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -13514,10 +13661,10 @@
         <v>33</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -13525,10 +13672,10 @@
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -13536,10 +13683,10 @@
         <v>37</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -13547,10 +13694,10 @@
         <v>45</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -13558,10 +13705,10 @@
         <v>46</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -13569,10 +13716,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -13580,10 +13727,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -13591,10 +13738,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -13602,10 +13749,10 @@
         <v>16</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -13613,10 +13760,10 @@
         <v>24</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -13624,10 +13771,10 @@
         <v>26</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -13635,10 +13782,10 @@
         <v>39</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -13646,10 +13793,10 @@
         <v>40</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -13657,10 +13804,10 @@
         <v>42</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -13668,10 +13815,10 @@
         <v>43</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -13679,10 +13826,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -13690,10 +13837,10 @@
         <v>20</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -13701,10 +13848,10 @@
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -13712,10 +13859,10 @@
         <v>36</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -13723,10 +13870,10 @@
         <v>44</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -13734,10 +13881,10 @@
         <v>48</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -13745,10 +13892,10 @@
         <v>49</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -13756,10 +13903,10 @@
         <v>50</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -13767,10 +13914,10 @@
         <v>21</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -13778,10 +13925,10 @@
         <v>23</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -13789,10 +13936,10 @@
         <v>31</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -13800,10 +13947,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -13818,7 +13965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDA48CC-1C6E-4AD7-9F62-852376E5C885}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F56"/>
@@ -13827,36 +13974,36 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="35" customFormat="1">
       <c r="A1" s="35" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="35" customFormat="1"/>
     <row r="4" spans="1:6" s="8" customFormat="1">
       <c r="B4" s="8" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -13921,7 +14068,7 @@
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1">
       <c r="B15" s="19" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -13930,53 +14077,53 @@
     <row r="17" spans="1:6">
       <c r="B17" s="16"/>
       <c r="C17" s="11" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" s="17" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="18" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="17" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -13985,7 +14132,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="18" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -13994,7 +14141,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="17" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -14003,7 +14150,7 @@
     </row>
     <row r="25" spans="1:6" s="8" customFormat="1">
       <c r="B25" s="8" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="9" customFormat="1">
@@ -14014,13 +14161,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="11" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -14086,13 +14233,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="11" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -15291,6 +15438,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c90ce6b-a119-4a1b-9ca9-22ee8dfef1e0">
@@ -15301,55 +15457,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEE25DAE-DEA7-46A4-BC92-89C0C2BFEBB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4c90ce6b-a119-4a1b-9ca9-22ee8dfef1e0"/>
-    <ds:schemaRef ds:uri="f0503acc-c97a-4386-93e8-056ff8cfe784"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEE25DAE-DEA7-46A4-BC92-89C0C2BFEBB4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75B9D6F8-C83A-40C5-90BB-21EB7958D9CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f0503acc-c97a-4386-93e8-056ff8cfe784"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4c90ce6b-a119-4a1b-9ca9-22ee8dfef1e0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB8D7FA9-D7CA-4E55-B513-2570EF42B027}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB8D7FA9-D7CA-4E55-B513-2570EF42B027}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75B9D6F8-C83A-40C5-90BB-21EB7958D9CC}"/>
 </file>